--- a/app/public/tpl/import_tpl.xlsx
+++ b/app/public/tpl/import_tpl.xlsx
@@ -15,6 +15,374 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Masterlab:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">如果编号为空，则新增事项；如果不为空则查找事项进行更新操作
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Masterlab:
+事项类型的名称，区分大小写</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Masterlab:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+优先级的名称，区分大小写
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Masterlab:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+要导入项目的模块名称，区分大小写，不能忽略空格
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Masterlab:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最大长度255</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Masterlab:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+要导入项目的迭代名称，区分大小写，不能忽略空格</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Masterlab:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+大于0的数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Masterlab:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用户名，不能输入多个
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Masterlab:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用户名，不能输入多个</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Masterlab:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用户名，可以多个，以逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Masterlab:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+状态的名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Masterlab:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+解决结果的名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Masterlab:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+要导入项目的版本名称，不能忽略空格</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Masterlab:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+要导入项目的版本名称，不能忽略空格
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+日期格式,Y-m-d格式，如 2019-09-09</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+日期格式,Y-m-d格式，如 2019-09-09
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
@@ -156,11 +524,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,9 +609,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,9 +631,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,17 +677,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,19 +700,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -332,57 +753,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -400,49 +790,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,133 +946,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,17 +984,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,16 +1003,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,25 +1042,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,10 +1089,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +1101,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1249,8 +1639,8 @@
   <sheetPr/>
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1262,7 +1652,7 @@
     <col min="8" max="8" width="6.46666666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.25833333333333" customWidth="1"/>
     <col min="10" max="10" width="8.23333333333333" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
     <col min="12" max="12" width="11.9083333333333" customWidth="1"/>
     <col min="13" max="13" width="11.325" customWidth="1"/>
     <col min="14" max="14" width="17.7916666666667" customWidth="1"/>
@@ -1532,6 +1922,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/app/public/tpl/import_tpl.xlsx
+++ b/app/public/tpl/import_tpl.xlsx
@@ -523,10 +523,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -610,7 +610,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,15 +713,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,22 +739,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,83 +753,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -790,187 +790,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,24 +981,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1017,17 +999,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,28 +1067,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,10 +1089,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,133 +1101,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1640,7 +1640,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1740,10 +1740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:18">
-      <c r="A3">
-        <v>656</v>
-      </c>
+    <row r="3" ht="18" customHeight="1" spans="2:18">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -1787,10 +1784,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:18">
-      <c r="A4">
-        <v>657</v>
-      </c>
+    <row r="4" ht="20" customHeight="1" spans="2:18">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1832,10 +1826,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1" spans="1:18">
-      <c r="A5">
-        <v>658</v>
-      </c>
+    <row r="5" ht="20" customHeight="1" spans="2:18">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -1875,10 +1866,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="6" ht="21" customHeight="1" spans="1:18">
-      <c r="A6">
-        <v>659</v>
-      </c>
+    <row r="6" ht="21" customHeight="1" spans="2:18">
       <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
